--- a/Updated Publicity Brochure.xlsx
+++ b/Updated Publicity Brochure.xlsx
@@ -1312,7 +1312,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="11" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1368,15 +1368,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1384,7 +1384,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1392,17 +1392,17 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="9" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
@@ -1412,11 +1412,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="true"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="7" shrinkToFit="true"/>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="9" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1424,7 +1424,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1446,18 +1446,18 @@
   </sheetPr>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17:G21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="86.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.83"/>
   </cols>
@@ -1779,7 +1779,7 @@
       <c r="F14" s="12" t="n">
         <v>5000</v>
       </c>
-      <c r="G14" s="13" t="str">
+      <c r="G14" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A14,CHAR(34),",",CHAR(34),C14,CHAR(34),",",CHAR(34),"TEAM SIZE:",D14,CHAR(34),",",CHAR(34),"Registration:",E14,CHAR(34),",",CHAR(34),"Prize Money:",F14,CHAR(34))</f>
         <v>"Spot Photography Contest","Theme is given on arrival of the photographer on the day of the event. The contestant has to wander inside college, click according to the theme, and can submit upto 3 entries. A small 80-100 word story has to be written along with the submission.","TEAM SIZE:Indiviudal","Registration:200","Prize Money:5000"</v>
       </c>
@@ -1981,7 +1981,7 @@
       <c r="F23" s="7" t="n">
         <v>4500</v>
       </c>
-      <c r="G23" s="13" t="str">
+      <c r="G23" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A23,CHAR(34),",",CHAR(34),C23,CHAR(34),",",CHAR(34),"TEAM SIZE:",D23,CHAR(34),",",CHAR(34),"Registration:",E23,CHAR(34),",",CHAR(34),"Prize Money:",F23,CHAR(34))</f>
         <v>"COD : Mobile","Experience intense multiplayer mobile gaming.","TEAM SIZE:5 players","Registration:400/team","Prize Money:4500"</v>
       </c>
@@ -2005,7 +2005,7 @@
       <c r="F24" s="7" t="n">
         <v>3000</v>
       </c>
-      <c r="G24" s="13" t="str">
+      <c r="G24" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A24,CHAR(34),",",CHAR(34),C24,CHAR(34),",",CHAR(34),"TEAM SIZE:",D24,CHAR(34),",",CHAR(34),"Registration:",E24,CHAR(34),",",CHAR(34),"Prize Money:",F24,CHAR(34))</f>
         <v>"COD : PC","Single death leads to elimination.","TEAM SIZE:Individual","Registration:100","Prize Money:3000"</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="F25" s="7" t="n">
         <v>4500</v>
       </c>
-      <c r="G25" s="13" t="str">
+      <c r="G25" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A25,CHAR(34),",",CHAR(34),C25,CHAR(34),",",CHAR(34),"TEAM SIZE:",D25,CHAR(34),",",CHAR(34),"Registration:",E25,CHAR(34),",",CHAR(34),"Prize Money:",F25,CHAR(34))</f>
         <v>"CS : Go","Victory conditions: Elimination round begins
 with race to 8.","TEAM SIZE:5 Players","Registration:500/team","Prize Money:4500"</v>
@@ -2054,7 +2054,7 @@
       <c r="F26" s="7" t="n">
         <v>4500</v>
       </c>
-      <c r="G26" s="13" t="str">
+      <c r="G26" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A26,CHAR(34),",",CHAR(34),C26,CHAR(34),",",CHAR(34),"TEAM SIZE:",D26,CHAR(34),",",CHAR(34),"Registration:",E26,CHAR(34),",",CHAR(34),"Prize Money:",F26,CHAR(34))</f>
         <v>"PUBG Mobile","Experience intense multiplayer mobile gaming.","TEAM SIZE:4 players","Registration:400/team","Prize Money:4500"</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="F27" s="7" t="n">
         <v>4500</v>
       </c>
-      <c r="G27" s="13" t="str">
+      <c r="G27" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A27,CHAR(34),",",CHAR(34),C27,CHAR(34),",",CHAR(34),"TEAM SIZE:",D27,CHAR(34),",",CHAR(34),"Registration:",E27,CHAR(34),",",CHAR(34),"Prize Money:",F27,CHAR(34))</f>
         <v>"FIFA 20","Online football game with 4 minute half.","TEAM SIZE:Individual","Registration:100","Prize Money:4500"</v>
       </c>
@@ -2102,7 +2102,7 @@
       <c r="F28" s="12" t="n">
         <v>3000</v>
       </c>
-      <c r="G28" s="13" t="str">
+      <c r="G28" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A28,CHAR(34),",",CHAR(34),C28,CHAR(34),",",CHAR(34),"TEAM SIZE:",D28,CHAR(34),",",CHAR(34),"Registration:",E28,CHAR(34),",",CHAR(34),"Prize Money:",F28,CHAR(34))</f>
         <v>"NFS","4 players will be competing in a race. The racers in the top 2 positions from each race
 will go on to the next round.","TEAM SIZE:Individual","Registration:100","Prize Money:3000"</v>
@@ -2141,7 +2141,7 @@
       <c r="F30" s="7" t="n">
         <v>2000</v>
       </c>
-      <c r="G30" s="13" t="str">
+      <c r="G30" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A30,CHAR(34),",",CHAR(34),C30,CHAR(34),",",CHAR(34),"TEAM SIZE:",D30,CHAR(34),",",CHAR(34),"Registration:",E30,CHAR(34),",",CHAR(34),"Prize Money:",F30,CHAR(34))</f>
         <v>"Treasure Hunt","Use your brainpower to solve clues and find
 the hidden treasure in college.","TEAM SIZE:1 - 3 per Team","Registration:150/team","Prize Money:2000"</v>
@@ -2166,7 +2166,7 @@
       <c r="F31" s="12" t="n">
         <v>2000</v>
       </c>
-      <c r="G31" s="13" t="str">
+      <c r="G31" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A31,CHAR(34),",",CHAR(34),C31,CHAR(34),",",CHAR(34),"TEAM SIZE:",D31,CHAR(34),",",CHAR(34),"Registration:",E31,CHAR(34),",",CHAR(34),"Prize Money:",F31,CHAR(34))</f>
         <v>"Beg Borrow Steal","Do whatever you may- beg, borrow or steal within the college premises but find the listed
 articles.","TEAM SIZE:1 - 3 per Team","Registration:150/team","Prize Money:2000"</v>
@@ -2191,7 +2191,7 @@
       <c r="F32" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="G32" s="13" t="str">
+      <c r="G32" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A32,CHAR(34),",",CHAR(34),C32,CHAR(34),",",CHAR(34),"TEAM SIZE:",D32,CHAR(34),",",CHAR(34),"Registration:",E32,CHAR(34),",",CHAR(34),"Prize Money:",F32,CHAR(34))</f>
         <v>"Junk to Funk","Use your skills to make the useless items provided to you into unique and funky
 products.","TEAM SIZE:1 - 3 per Team","Registration:150/team","Prize Money:1500"</v>
@@ -2216,7 +2216,7 @@
       <c r="F33" s="7" t="n">
         <v>1500</v>
       </c>
-      <c r="G33" s="13" t="str">
+      <c r="G33" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A33,CHAR(34),",",CHAR(34),C33,CHAR(34),",",CHAR(34),"TEAM SIZE:",D33,CHAR(34),",",CHAR(34),"Registration:",E33,CHAR(34),",",CHAR(34),"Prize Money:",F33,CHAR(34))</f>
         <v>"Friends","Quiz and activities related to popular TV
 series; FRIENDS.","TEAM SIZE:1 - 2 per Team","Registration:100","Prize Money:1500"</v>
@@ -2241,7 +2241,7 @@
       <c r="F34" s="7" t="n">
         <v>1500</v>
       </c>
-      <c r="G34" s="13" t="str">
+      <c r="G34" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A34,CHAR(34),",",CHAR(34),C34,CHAR(34),",",CHAR(34),"TEAM SIZE:",D34,CHAR(34),",",CHAR(34),"Registration:",E34,CHAR(34),",",CHAR(34),"Prize Money:",F34,CHAR(34))</f>
         <v>"Sherlock","Quiz and activities related to popular TV
 series; SHERLOCK.","TEAM SIZE:1 - 2 per Team","Registration:100","Prize Money:1500"</v>
@@ -2266,7 +2266,7 @@
       <c r="F35" s="12" t="n">
         <v>4000</v>
       </c>
-      <c r="G35" s="13" t="str">
+      <c r="G35" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A35,CHAR(34),",",CHAR(34),C35,CHAR(34),",",CHAR(34),"TEAM SIZE:",D35,CHAR(34),",",CHAR(34),"Registration:",E35,CHAR(34),",",CHAR(34),"Prize Money:",F35,CHAR(34))</f>
         <v>"Graffiti","An awesome and fun filled opportunity to
 showcase the talent of painting on a wall based on a theme.","TEAM SIZE:3 - 4 per Team","Registration:300/team","Prize Money:4000"</v>
@@ -2291,7 +2291,7 @@
       <c r="F36" s="25" t="n">
         <v>50000</v>
       </c>
-      <c r="G36" s="13" t="str">
+      <c r="G36" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A36,CHAR(34),",",CHAR(34),C36,CHAR(34),",",CHAR(34),"TEAM SIZE:",D36,CHAR(34),",",CHAR(34),"Registration:",E36,CHAR(34),",",CHAR(34),"Prize Money:",F36,CHAR(34))</f>
         <v>"Mock IPL Auction","Invest and buy just like in the real IPL Auction with the virtual money provided to you.","TEAM SIZE:4 - 5 per Team","Registration:400/team","Prize Money:50000"</v>
       </c>
@@ -2315,7 +2315,7 @@
       <c r="F37" s="7" t="n">
         <v>1500</v>
       </c>
-      <c r="G37" s="13" t="str">
+      <c r="G37" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A37,CHAR(34),",",CHAR(34),C37,CHAR(34),",",CHAR(34),"TEAM SIZE:",D37,CHAR(34),",",CHAR(34),"Registration:",E37,CHAR(34),",",CHAR(34),"Prize Money:",F37,CHAR(34))</f>
         <v>"KGF Quiz","Quiz and activities related to popular movie;
 KGF","TEAM SIZE:1 - 2 per Team","Registration:100","Prize Money:1500"</v>
@@ -2340,7 +2340,7 @@
       <c r="F38" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="G38" s="13" t="str">
+      <c r="G38" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A38,CHAR(34),",",CHAR(34),C38,CHAR(34),",",CHAR(34),"TEAM SIZE:",D38,CHAR(34),",",CHAR(34),"Registration:",E38,CHAR(34),",",CHAR(34),"Prize Money:",F38,CHAR(34))</f>
         <v>"Kannada Debate","Test your spontaneity and fluency in Kannada with this exciting debate competition.","TEAM SIZE:1 - 2 per Team","Registration:100","Prize Money:1500"</v>
       </c>
@@ -2364,7 +2364,7 @@
       <c r="F39" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="G39" s="13" t="str">
+      <c r="G39" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A39,CHAR(34),",",CHAR(34),C39,CHAR(34),",",CHAR(34),"TEAM SIZE:",D39,CHAR(34),",",CHAR(34),"Registration:",E39,CHAR(34),",",CHAR(34),"Prize Money:",F39,CHAR(34))</f>
         <v>"GOT","Quiz and activities related to popular TV series;
 GAME OF THRONES","TEAM SIZE:1 - 2 per Team","Registration:100","Prize Money:1500"</v>
@@ -2389,7 +2389,7 @@
       <c r="F40" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="G40" s="13" t="str">
+      <c r="G40" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A40,CHAR(34),",",CHAR(34),C40,CHAR(34),",",CHAR(34),"TEAM SIZE:",D40,CHAR(34),",",CHAR(34),"Registration:",E40,CHAR(34),",",CHAR(34),"Prize Money:",F40,CHAR(34))</f>
         <v>"Cooking without fire","Give your cooking stoves a rest and try delicious no fire recipes.","TEAM SIZE:Individual","Registration:100","Prize Money:1000"</v>
       </c>
@@ -2413,7 +2413,7 @@
       <c r="F41" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="G41" s="13" t="str">
+      <c r="G41" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A41,CHAR(34),",",CHAR(34),C41,CHAR(34),",",CHAR(34),"TEAM SIZE:",D41,CHAR(34),",",CHAR(34),"Registration:",E41,CHAR(34),",",CHAR(34),"Prize Money:",F41,CHAR(34))</f>
         <v>"Standup Comedy","Be the reason for all the giggle and laughter around.
 (time limit - 5-8 mins)","TEAM SIZE:Individual","Registration:100","Prize Money:1500"</v>
@@ -2438,7 +2438,7 @@
       <c r="F42" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="G42" s="13" t="str">
+      <c r="G42" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A42,CHAR(34),",",CHAR(34),C42,CHAR(34),",",CHAR(34),"TEAM SIZE:",D42,CHAR(34),",",CHAR(34),"Registration:",E42,CHAR(34),",",CHAR(34),"Prize Money:",F42,CHAR(34))</f>
         <v>"Poster Making","This event helps the students to involve themselves in creative activities and showcase their artistic talent in making posters (Theme -
 Sustainability).","TEAM SIZE:1 - 2 per Team","Registration:100","Prize Money:1500"</v>
@@ -2463,7 +2463,7 @@
       <c r="F43" s="7" t="n">
         <v>1500</v>
       </c>
-      <c r="G43" s="13" t="str">
+      <c r="G43" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A43,CHAR(34),",",CHAR(34),C43,CHAR(34),",",CHAR(34),"TEAM SIZE:",D43,CHAR(34),",",CHAR(34),"Registration:",E43,CHAR(34),",",CHAR(34),"Prize Money:",F43,CHAR(34))</f>
         <v>"Mask Painting","Come show us the best way to put up a
 disguise with the perfect blend of colours.","TEAM SIZE:Individual","Registration:100","Prize Money:1500"</v>
@@ -2488,7 +2488,7 @@
       <c r="F44" s="12" t="n">
         <v>1500</v>
       </c>
-      <c r="G44" s="13" t="str">
+      <c r="G44" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A44,CHAR(34),",",CHAR(34),C44,CHAR(34),",",CHAR(34),"TEAM SIZE:",D44,CHAR(34),",",CHAR(34),"Registration:",E44,CHAR(34),",",CHAR(34),"Prize Money:",F44,CHAR(34))</f>
         <v>"Dumb Charades","Show us how you and your friends are invincible when it comes to the famous game
 of dumb charades.","TEAM SIZE:2 -3 per Team","Registration:100","Prize Money:1500"</v>
@@ -2525,7 +2525,7 @@
         <v>133</v>
       </c>
       <c r="F46" s="26"/>
-      <c r="G46" s="13" t="str">
+      <c r="G46" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A46,CHAR(34),",",CHAR(34),C46,CHAR(34),",",CHAR(34),"TEAM SIZE:",D46,CHAR(34),",",CHAR(34),"Registration:",E46,CHAR(34),",",CHAR(34),"Prize Money:",F46,CHAR(34))</f>
         <v>"Hack 59","Overnight coding event; the hack should be built on the concept(topic) which will be
 provided to the teams on spot.","TEAM SIZE:4 - 6 per Team","Registration:2000/team","Prize Money:"</v>
@@ -2550,7 +2550,7 @@
       <c r="F47" s="12" t="n">
         <v>50000</v>
       </c>
-      <c r="G47" s="13" t="str">
+      <c r="G47" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A47,CHAR(34),",",CHAR(34),C47,CHAR(34),",",CHAR(34),"TEAM SIZE:",D47,CHAR(34),",",CHAR(34),"Registration:",E47,CHAR(34),",",CHAR(34),"Prize Money:",F47,CHAR(34))</f>
         <v>"Business Marathon","It is an overnight event consisting of ideating over a business model and coming up with an
 entrepreneurship idea.","TEAM SIZE:5 - 6 per Team","Registration:750/team","Prize Money:50000"</v>
@@ -2575,7 +2575,7 @@
       <c r="F48" s="12" t="n">
         <v>25000</v>
       </c>
-      <c r="G48" s="13" t="str">
+      <c r="G48" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A48,CHAR(34),",",CHAR(34),C48,CHAR(34),",",CHAR(34),"TEAM SIZE:",D48,CHAR(34),",",CHAR(34),"Registration:",E48,CHAR(34),",",CHAR(34),"Prize Money:",F48,CHAR(34))</f>
         <v>"Stock Market Competition","A real time trading simulation platform; giving a feel of the way it happens in the real world.","TEAM SIZE:2 - 3 per Team","Registration:300/team","Prize Money:25000"</v>
       </c>
@@ -2599,7 +2599,7 @@
       <c r="F49" s="12" t="n">
         <v>3000</v>
       </c>
-      <c r="G49" s="13" t="str">
+      <c r="G49" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A49,CHAR(34),",",CHAR(34),C49,CHAR(34),",",CHAR(34),"TEAM SIZE:",D49,CHAR(34),",",CHAR(34),"Registration:",E49,CHAR(34),",",CHAR(34),"Prize Money:",F49,CHAR(34))</f>
         <v>"Finding Sherlock","This is a capture the flag event with theme based on Sherlock. Participants needs to find the secret keys hidden in each level of the game. This is a technical event and the team
 with maximum keys wins.","TEAM SIZE:1 - 2 per Team","Registration:100/team","Prize Money:3000"</v>
@@ -2638,7 +2638,7 @@
       <c r="F51" s="7" t="n">
         <v>6000</v>
       </c>
-      <c r="G51" s="13" t="str">
+      <c r="G51" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A51,CHAR(34),",",CHAR(34),C51,CHAR(34),",",CHAR(34),"TEAM SIZE:",D51,CHAR(34),",",CHAR(34),"Registration:",E51,CHAR(34),",",CHAR(34),"Prize Money:",F51,CHAR(34))</f>
         <v>"Math-o-mania","It’s a Mathematics Quiz.","TEAM SIZE:Individual","Registration:50","Prize Money:6000"</v>
       </c>
@@ -2662,7 +2662,7 @@
       <c r="F52" s="12" t="n">
         <v>7500</v>
       </c>
-      <c r="G52" s="13" t="str">
+      <c r="G52" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A52,CHAR(34),",",CHAR(34),C52,CHAR(34),",",CHAR(34),"TEAM SIZE:",D52,CHAR(34),",",CHAR(34),"Registration:",E52,CHAR(34),",",CHAR(34),"Prize Money:",F52,CHAR(34))</f>
         <v>"Exceptions","Experience the merger of techno cultural minds with an explosion of learning and fun for
 young and enthusiastic minds.","TEAM SIZE:4 in a Team","Registration:200","Prize Money:7500"</v>
@@ -2687,7 +2687,7 @@
       <c r="F53" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="G53" s="13" t="str">
+      <c r="G53" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A53,CHAR(34),",",CHAR(34),C53,CHAR(34),",",CHAR(34),"TEAM SIZE:",D53,CHAR(34),",",CHAR(34),"Registration:",E53,CHAR(34),",",CHAR(34),"Prize Money:",F53,CHAR(34))</f>
         <v>"Chem-o-philia","Technical quiz","TEAM SIZE:3 - 4 per Team","Registration:300","Prize Money:1000"</v>
       </c>
@@ -2711,7 +2711,7 @@
       <c r="F54" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="G54" s="13" t="str">
+      <c r="G54" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A54,CHAR(34),",",CHAR(34),C54,CHAR(34),",",CHAR(34),"TEAM SIZE:",D54,CHAR(34),",",CHAR(34),"Registration:",E54,CHAR(34),",",CHAR(34),"Prize Money:",F54,CHAR(34))</f>
         <v>"Chemblitz","Industrial problem solving","TEAM SIZE:3 - 4 per Team","Registration:150","Prize Money:1000"</v>
       </c>
@@ -2735,7 +2735,7 @@
       <c r="F55" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="G55" s="13" t="str">
+      <c r="G55" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A55,CHAR(34),",",CHAR(34),C55,CHAR(34),",",CHAR(34),"TEAM SIZE:",D55,CHAR(34),",",CHAR(34),"Registration:",E55,CHAR(34),",",CHAR(34),"Prize Money:",F55,CHAR(34))</f>
         <v>"Escape room","Mystery room event","TEAM SIZE:3 per Team","Registration:150","Prize Money:500"</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="F56" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="G56" s="13" t="str">
+      <c r="G56" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A56,CHAR(34),",",CHAR(34),C56,CHAR(34),",",CHAR(34),"TEAM SIZE:",D56,CHAR(34),",",CHAR(34),"Registration:",E56,CHAR(34),",",CHAR(34),"Prize Money:",F56,CHAR(34))</f>
         <v>"Chemmunicate","Participants have to complete a series of tasks","TEAM SIZE:4 per Team","Registration:150","Prize Money:500"</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="F57" s="7" t="n">
         <v>8000</v>
       </c>
-      <c r="G57" s="13" t="str">
+      <c r="G57" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A57,CHAR(34),",",CHAR(34),C57,CHAR(34),",",CHAR(34),"TEAM SIZE:",D57,CHAR(34),",",CHAR(34),"Registration:",E57,CHAR(34),",",CHAR(34),"Prize Money:",F57,CHAR(34))</f>
         <v>"Paper and poster
 presentation","Paper and poster presentation","TEAM SIZE:3 - 4 per Team","Registration:150","Prize Money:8000"</v>
@@ -2808,7 +2808,7 @@
       <c r="F58" s="7" t="n">
         <v>1500</v>
       </c>
-      <c r="G58" s="13" t="str">
+      <c r="G58" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A58,CHAR(34),",",CHAR(34),C58,CHAR(34),",",CHAR(34),"TEAM SIZE:",D58,CHAR(34),",",CHAR(34),"Registration:",E58,CHAR(34),",",CHAR(34),"Prize Money:",F58,CHAR(34))</f>
         <v>"Air Crash","Survival of the best","TEAM SIZE:2 per Team","Registration:150","Prize Money:1500"</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="F59" s="27" t="n">
         <v>1500</v>
       </c>
-      <c r="G59" s="13" t="str">
+      <c r="G59" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A59,CHAR(34),",",CHAR(34),C59,CHAR(34),",",CHAR(34),"TEAM SIZE:",D59,CHAR(34),",",CHAR(34),"Registration:",E59,CHAR(34),",",CHAR(34),"Prize Money:",F59,CHAR(34))</f>
         <v>"Sherlock'd","A Murder mysetry themed competition where
 one uncovers hidden clues to solve a given case.","TEAM SIZE:3 per Team","Registration:150","Prize Money:1500"</v>
@@ -2857,7 +2857,7 @@
       <c r="F60" s="28" t="n">
         <v>2500</v>
       </c>
-      <c r="G60" s="13" t="str">
+      <c r="G60" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A60,CHAR(34),",",CHAR(34),C60,CHAR(34),",",CHAR(34),"TEAM SIZE:",D60,CHAR(34),",",CHAR(34),"Registration:",E60,CHAR(34),",",CHAR(34),"Prize Money:",F60,CHAR(34))</f>
         <v>"Rush n slush","Complete a series of fun activities and race against time in order to choose 'slush' i.e., waste items of your choice in order to finish successfully with a unique product","TEAM SIZE:2 - 3 per Team","Registration:150","Prize Money:2500"</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="F61" s="27" t="n">
         <v>2500</v>
       </c>
-      <c r="G61" s="13" t="str">
+      <c r="G61" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A61,CHAR(34),",",CHAR(34),C61,CHAR(34),",",CHAR(34),"TEAM SIZE:",D61,CHAR(34),",",CHAR(34),"Registration:",E61,CHAR(34),",",CHAR(34),"Prize Money:",F61,CHAR(34))</f>
         <v>"Colors on Linen","A white cloth will be provided, pn which you
 can paint and sketch your interpretation of climate change.","TEAM SIZE:2 - 3 per Team","Registration:100","Prize Money:2500"</v>
@@ -2906,7 +2906,7 @@
       <c r="F62" s="27" t="n">
         <v>4500</v>
       </c>
-      <c r="G62" s="13" t="str">
+      <c r="G62" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A62,CHAR(34),",",CHAR(34),C62,CHAR(34),",",CHAR(34),"TEAM SIZE:",D62,CHAR(34),",",CHAR(34),"Registration:",E62,CHAR(34),",",CHAR(34),"Prize Money:",F62,CHAR(34))</f>
         <v>"Apocalypse of the Megacosm","Two cases of international importance will be given and teams have to chalk out the strategy and formulate the best soultion possible.","TEAM SIZE:Max 5","Registration:300","Prize Money:4500"</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="F63" s="27" t="n">
         <v>4500</v>
       </c>
-      <c r="G63" s="13" t="str">
+      <c r="G63" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A63,CHAR(34),",",CHAR(34),C63,CHAR(34),",",CHAR(34),"TEAM SIZE:",D63,CHAR(34),",",CHAR(34),"Registration:",E63,CHAR(34),",",CHAR(34),"Prize Money:",F63,CHAR(34))</f>
         <v>"Paper and poster presentation","This event is a platform for students working/completed working on research project or a poster. A team should consist of maximum 4 students. Presentation can be in the form of a poster or the paper can be
 presented in the form of a ppt.","TEAM SIZE:Max 5","Registration:150","Prize Money:4500"</v>
@@ -2951,7 +2951,7 @@
         <v>750</v>
       </c>
       <c r="F64" s="6"/>
-      <c r="G64" s="13" t="str">
+      <c r="G64" s="8" t="str">
         <f aca="false">CONCATENATE(CHAR(34),A64,CHAR(34),",",CHAR(34),C64,CHAR(34),",",CHAR(34),"TEAM SIZE:",D64,CHAR(34),",",CHAR(34),"Registration:",E64,CHAR(34),",",CHAR(34),"Prize Money:",F64,CHAR(34))</f>
         <v>"HANDS ON FORENSIC SCIENCE WORKSHOP","Learn from an experienced forensic analyst the tricks of the trade; about the science, tech and high profile forensic cases cracked by specialists. An opportunity to learn about the art of criminal profiling with a touch of biology. Lunch and certificate will be provided.","TEAM SIZE:","Registration:750","Prize Money:"</v>
       </c>
